--- a/output/fit_clients/fit_round_210.xlsx
+++ b/output/fit_clients/fit_round_210.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1707163772.416862</v>
+        <v>2069376438.602399</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08452933599380501</v>
+        <v>0.09611054925128985</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04036537497761727</v>
+        <v>0.04056661081699681</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>853581842.4602988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1770872803.856549</v>
+        <v>2221786869.617322</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1791904154398945</v>
+        <v>0.1766812824519876</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03296869761836593</v>
+        <v>0.03991417012506124</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>885436406.4834445</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3511947021.274343</v>
+        <v>4357755925.514755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1246632810908091</v>
+        <v>0.1134617583489152</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03693425298809941</v>
+        <v>0.02508885563936462</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>76</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1755973490.220392</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3034543231.103539</v>
+        <v>3103606618.750109</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09240388210727836</v>
+        <v>0.07773302740699727</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04374982362011844</v>
+        <v>0.04599645276893802</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1517271683.132485</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2467239605.738152</v>
+        <v>1855525663.626783</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1488928775114871</v>
+        <v>0.09497280530622798</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04651825111056701</v>
+        <v>0.04069374594433521</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1233619781.881985</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2631738997.642834</v>
+        <v>2914090088.210997</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09230943100867912</v>
+        <v>0.08143630399485667</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03180520476926577</v>
+        <v>0.03211128266702629</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1315869499.120177</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2736577730.014063</v>
+        <v>2941937744.535593</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2186107812059616</v>
+        <v>0.1443117683844915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02473139666671197</v>
+        <v>0.02795448461299519</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>67</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1368288895.577661</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2211395590.073349</v>
+        <v>2136179121.600705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1364435355985319</v>
+        <v>0.1713215154746952</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03484519342746047</v>
+        <v>0.02337084988355041</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1105697792.28033</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4614159320.138069</v>
+        <v>5878498142.994023</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1981244633730468</v>
+        <v>0.2118865093356299</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0500679013199176</v>
+        <v>0.04109773743035085</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>89</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2307079729.46648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2611839338.990493</v>
+        <v>4033707557.655866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1254071611078063</v>
+        <v>0.1731123506558348</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03154383819611694</v>
+        <v>0.04692567949498421</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>87</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1305919585.335329</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2107172251.749817</v>
+        <v>2548283107.63311</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1315504335084162</v>
+        <v>0.1792902075326906</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04249205849023566</v>
+        <v>0.03310211052006071</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1053586062.08881</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4770060874.816838</v>
+        <v>4505140353.059179</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07796116030357178</v>
+        <v>0.08804566027762219</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02853255952100878</v>
+        <v>0.02757835054761199</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>71</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2385030453.20505</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3755842302.122544</v>
+        <v>3378932886.138626</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1363768007956844</v>
+        <v>0.1240062528686144</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04021707135981495</v>
+        <v>0.02925703860122306</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>69</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1877921130.755641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1808479634.731102</v>
+        <v>1557417362.772066</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08339457130192422</v>
+        <v>0.08000512196944261</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04346181487529961</v>
+        <v>0.03734830940044271</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>904239972.7896023</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2714294152.464602</v>
+        <v>2607555272.927942</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07851823193240243</v>
+        <v>0.08664980538898892</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04116866173484429</v>
+        <v>0.04521196142771267</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>33</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1357147087.888971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3486804034.71587</v>
+        <v>4776670574.370256</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1200497407707476</v>
+        <v>0.1575478432121174</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0463594443337616</v>
+        <v>0.04372185814212913</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>61</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1743402077.316667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2433806931.039433</v>
+        <v>2582317990.997846</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1509773024290417</v>
+        <v>0.1752373529631259</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02389301068711312</v>
+        <v>0.02195279431518185</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>69</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1216903536.756119</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1286543104.68066</v>
+        <v>1374515350.284688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1248929197288535</v>
+        <v>0.1741551775839348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01815323675353227</v>
+        <v>0.01727714777790005</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>643271651.3064064</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2622544322.930692</v>
+        <v>2796188357.950776</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1160361515336721</v>
+        <v>0.1501012140197739</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02040880044206827</v>
+        <v>0.02816795590589805</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1311272121.470713</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2736391500.276569</v>
+        <v>2221264934.165789</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09173776912422169</v>
+        <v>0.0764319391806096</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04295106153542581</v>
+        <v>0.03178191432073906</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1368195715.635962</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2514530938.607872</v>
+        <v>3655335279.423432</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1293984188429225</v>
+        <v>0.09510614163367161</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04849053702274622</v>
+        <v>0.05427609163540704</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1257265559.892516</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1338126966.829333</v>
+        <v>1255140351.035256</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1349590552831223</v>
+        <v>0.1609334557401902</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04478941355520873</v>
+        <v>0.04508855749303583</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>669063496.6229522</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3975292757.871357</v>
+        <v>2598401693.603271</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1131840315252944</v>
+        <v>0.09989639934524068</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02310236573719862</v>
+        <v>0.03194471608494878</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>61</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1987646348.57943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1229404428.678056</v>
+        <v>1459038315.043362</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1125799280401624</v>
+        <v>0.09489872442842906</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02594221268696435</v>
+        <v>0.01925231361609634</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>614702225.518213</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>964383959.5225723</v>
+        <v>1304360923.87323</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1143859681878326</v>
+        <v>0.1063742432971449</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03548352818834991</v>
+        <v>0.02953939702285362</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>482191943.11393</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3492327527.67348</v>
+        <v>4120315201.482824</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1531526508278374</v>
+        <v>0.1328405530838773</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01783184854675969</v>
+        <v>0.0194211325467905</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1746163799.174177</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3884969146.146178</v>
+        <v>2371334956.022292</v>
       </c>
       <c r="F28" t="n">
-        <v>0.13306201613591</v>
+        <v>0.1405319981071569</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04550806525653796</v>
+        <v>0.04034890029052701</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>68</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1942484661.084568</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3621357261.179786</v>
+        <v>5320929846.002897</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1188678343903947</v>
+        <v>0.1479936521463853</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03850708026579489</v>
+        <v>0.03914295396546393</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>93</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1810678673.639007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2056376475.648167</v>
+        <v>1521357214.818783</v>
       </c>
       <c r="F30" t="n">
-        <v>0.129992196332253</v>
+        <v>0.1215436859678862</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03440338491058087</v>
+        <v>0.02557149204423692</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1028188281.671865</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1400078776.103439</v>
+        <v>1458915202.613557</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09319748468115181</v>
+        <v>0.0728062931252367</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04002946353158723</v>
+        <v>0.0381611401490423</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>700039292.4036332</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1814746325.482086</v>
+        <v>1408853299.635756</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1147607915083246</v>
+        <v>0.1182974778201615</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02454926741152531</v>
+        <v>0.03566929255984506</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>907373296.2817408</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2394458633.420685</v>
+        <v>1918130744.237764</v>
       </c>
       <c r="F33" t="n">
-        <v>0.161261108866087</v>
+        <v>0.1706101024004945</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05239163984992323</v>
+        <v>0.05586727729125952</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>63</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1197229363.910317</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1224144704.761333</v>
+        <v>1146886233.581476</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09973239039772515</v>
+        <v>0.07594945268142689</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02560291058113312</v>
+        <v>0.01930102634788473</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>612072353.4419972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1026325209.949957</v>
+        <v>929682810.4386346</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08120328300680697</v>
+        <v>0.09537417971724424</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03871342244158588</v>
+        <v>0.03159391236280669</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>513162617.7672699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2766618389.650347</v>
+        <v>3055735210.106902</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1150992618993125</v>
+        <v>0.1152749399400926</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02636568950834309</v>
+        <v>0.02067486091152454</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>53</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1383309195.434819</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2565204874.911207</v>
+        <v>2862717079.980483</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06842696401859542</v>
+        <v>0.08985309768001117</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03352375979952035</v>
+        <v>0.0274521606674039</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1282602542.452861</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2031051306.147061</v>
+        <v>1585076755.358609</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09488511555071844</v>
+        <v>0.1044877952720696</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02546310340309734</v>
+        <v>0.02997995099198614</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1015525627.296185</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1447010092.81148</v>
+        <v>2019862310.597423</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1286920786912648</v>
+        <v>0.1925678643743002</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02542193550749714</v>
+        <v>0.02953523813347414</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>723505124.8945196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1185733700.104982</v>
+        <v>1793386739.820868</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1432743670632519</v>
+        <v>0.1270762680637937</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03694175784853712</v>
+        <v>0.05333554944001467</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>592866894.9050004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2738329109.28025</v>
+        <v>1885669663.673893</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1125680522673521</v>
+        <v>0.1396922334732495</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04541962109720432</v>
+        <v>0.0411310419698798</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>52</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1369164556.61075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3132031759.262455</v>
+        <v>4026723732.506868</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1093444071547196</v>
+        <v>0.09798597801232499</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03169147139713375</v>
+        <v>0.04228057841331814</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>71</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1566015849.137741</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2048638893.071789</v>
+        <v>2243931092.753513</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2000429718047073</v>
+        <v>0.1245864324968267</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02402804350294506</v>
+        <v>0.01954130810593703</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>71</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1024319540.544833</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1862878475.61082</v>
+        <v>1914616863.796098</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06890601185855552</v>
+        <v>0.08865189240882557</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03239175713426889</v>
+        <v>0.02676707420829191</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>931439316.7659007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1534487094.013774</v>
+        <v>2525578580.629452</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1330712991267362</v>
+        <v>0.1651471322018889</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05385648606977633</v>
+        <v>0.03755128340404671</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>767243490.9440097</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4354099373.887502</v>
+        <v>4078407333.150964</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1618901344742367</v>
+        <v>0.1477611971747758</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05071942425204435</v>
+        <v>0.05887588402850406</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>75</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2177049676.744747</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4645585767.077188</v>
+        <v>5142322103.957392</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1864305821935288</v>
+        <v>0.1660929636650122</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05865988554144164</v>
+        <v>0.05700018685537336</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>56</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2322792919.228406</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3072061695.641902</v>
+        <v>3000310286.571666</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09519096761248211</v>
+        <v>0.1034227891712994</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02909476053652314</v>
+        <v>0.0251710432804078</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>74</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1536030936.08618</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1765012768.30845</v>
+        <v>1385698187.824195</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1603557938582749</v>
+        <v>0.1595969009508701</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03369221646138648</v>
+        <v>0.02898669950678459</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>882506374.9670117</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3887579291.318813</v>
+        <v>3098332104.120115</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1752738578407773</v>
+        <v>0.1747505367497535</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03932206095331678</v>
+        <v>0.03430223971298961</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>72</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1943789642.347199</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1460647330.04679</v>
+        <v>1496441806.022504</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1607717485026027</v>
+        <v>0.1579982955652723</v>
       </c>
       <c r="G51" t="n">
-        <v>0.054436853544759</v>
+        <v>0.05262437379680114</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>730323674.3260531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3935212955.257743</v>
+        <v>3452066235.889589</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1105323629422706</v>
+        <v>0.1146120780736802</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05744963969826609</v>
+        <v>0.05590460963629072</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>87</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1967606537.908719</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3552218787.232528</v>
+        <v>2536985663.337451</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1283402895203082</v>
+        <v>0.1812365950699201</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03236953063999001</v>
+        <v>0.02545136772957491</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>60</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1776109387.935285</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3292268709.561081</v>
+        <v>3507931525.492505</v>
       </c>
       <c r="F54" t="n">
-        <v>0.162384119933099</v>
+        <v>0.1526161590002767</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03614383002251497</v>
+        <v>0.05301373765708463</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>68</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1646134363.256396</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4682279961.326275</v>
+        <v>3806010581.298447</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1966083159419683</v>
+        <v>0.2178235463069697</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03027562251202366</v>
+        <v>0.02844467047450303</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2341139985.646233</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1403730294.799847</v>
+        <v>1653308091.405029</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1136035316224858</v>
+        <v>0.1019744666856472</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05405304849574603</v>
+        <v>0.05200415414778948</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>701865203.9216207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3660873170.055311</v>
+        <v>3035339179.030978</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1282521930134482</v>
+        <v>0.1475839058850428</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02494914822639252</v>
+        <v>0.02761494589964247</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>67</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1830436644.906593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1773981089.280291</v>
+        <v>1761000884.244106</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1919577095351834</v>
+        <v>0.1412501668563595</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03540250401149913</v>
+        <v>0.03491667756978091</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>886990550.7680213</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3748091375.510232</v>
+        <v>4774672807.733892</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1044805186530587</v>
+        <v>0.1246301671655219</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03310841001526327</v>
+        <v>0.03491586924295802</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1874045675.844804</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3759438454.434451</v>
+        <v>2756395512.627945</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1755038577222839</v>
+        <v>0.1456698976377088</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02135278033048718</v>
+        <v>0.02128926787000946</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>66</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1879719377.211661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2942041915.070594</v>
+        <v>3058094853.896821</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1493456676179785</v>
+        <v>0.172985899670607</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02376227459190753</v>
+        <v>0.02471047236648597</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1471020943.453425</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1802383425.600893</v>
+        <v>1984513339.935504</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1894570620446951</v>
+        <v>0.157326599122195</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04701863593404863</v>
+        <v>0.03638540981427007</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>901191741.2192658</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3914141413.273326</v>
+        <v>4265361233.363799</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07853762580653771</v>
+        <v>0.09192021030470066</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03251966338889151</v>
+        <v>0.04379011406481023</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>60</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1957070772.852259</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3960878675.506199</v>
+        <v>4865359375.755515</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1537753779104995</v>
+        <v>0.1264561925859074</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02239254395404499</v>
+        <v>0.02684529099589158</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>65</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1980439370.839601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5574087384.178711</v>
+        <v>5788893614.010594</v>
       </c>
       <c r="F65" t="n">
-        <v>0.116418692113367</v>
+        <v>0.1722502732898942</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02730341531107254</v>
+        <v>0.03214294152519583</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>75</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2787043616.711789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5114246337.443851</v>
+        <v>4523602710.300005</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1173662504873831</v>
+        <v>0.134056441876106</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04489506404085543</v>
+        <v>0.04745938831834155</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>61</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2557123202.022081</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3146686481.480953</v>
+        <v>2369011224.227604</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07253393388998813</v>
+        <v>0.07861440180801127</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04004556378698561</v>
+        <v>0.0383319905535271</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1573343246.592828</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4095368901.676239</v>
+        <v>5593076320.775079</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1599835427203695</v>
+        <v>0.1081801909194427</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04148273143834057</v>
+        <v>0.05126247072111095</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>69</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2047684452.384815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1793923317.055772</v>
+        <v>2479378682.427224</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1743389413083787</v>
+        <v>0.1489932051730503</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05538877996094382</v>
+        <v>0.05512311774693017</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>896961636.8210629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2647346986.623963</v>
+        <v>2497887127.505173</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07179414217238854</v>
+        <v>0.07162453646958331</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04266537701085285</v>
+        <v>0.04084842988114146</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>60</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1323673447.312897</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5589945639.356959</v>
+        <v>4060455700.481593</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1252001314273845</v>
+        <v>0.1672603931510342</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02260917048319193</v>
+        <v>0.0319967112203306</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>77</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2794972969.441549</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1412936233.504723</v>
+        <v>1450167117.075233</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1029916749831549</v>
+        <v>0.08784736743122615</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04949440267205252</v>
+        <v>0.05171014437984754</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>706468157.7350143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2264765730.565666</v>
+        <v>3337168127.70906</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07954036446992344</v>
+        <v>0.0714881108273729</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04713524819155287</v>
+        <v>0.04208327491166775</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>80</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1132382928.586431</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3353669293.691859</v>
+        <v>3373175285.312956</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1707938456520262</v>
+        <v>0.1526805679234284</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02990350339105884</v>
+        <v>0.02851656379988931</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>72</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1676834681.649234</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1544499749.043622</v>
+        <v>2259326854.642297</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1101829593592453</v>
+        <v>0.1606419468105106</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0360911652922254</v>
+        <v>0.02362425160155313</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>772249881.4504606</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3421752040.45034</v>
+        <v>4625186400.252564</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09764454272782198</v>
+        <v>0.1196446622172492</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03329824642984737</v>
+        <v>0.03038258269705528</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1710875980.646316</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2005799246.112</v>
+        <v>2312966292.753386</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1458046208850451</v>
+        <v>0.150491100416375</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02664622140926644</v>
+        <v>0.02211285654405242</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1002899685.393377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3692382073.643897</v>
+        <v>4374832728.928489</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09712208170736986</v>
+        <v>0.1331350716061275</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05266130921271053</v>
+        <v>0.03639006960898123</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>73</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1846191024.546286</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1402197852.02828</v>
+        <v>1352230822.969582</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1354636951232282</v>
+        <v>0.1775745556937469</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03480469064041681</v>
+        <v>0.0271454453472317</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>701098943.070325</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4798745587.103088</v>
+        <v>5414591055.687654</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1053459345845507</v>
+        <v>0.08203312945109106</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02746047018800425</v>
+        <v>0.02458204042887516</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>44</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2399372832.724648</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3511139357.544677</v>
+        <v>5201521521.008789</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1103510413028299</v>
+        <v>0.117039622470365</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02085497027803739</v>
+        <v>0.02240533289786105</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1755569623.830691</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5468294605.817296</v>
+        <v>4211486245.305719</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1618960334588014</v>
+        <v>0.1874268097802691</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02434761610931194</v>
+        <v>0.01781573002243311</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2734147260.710687</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1881149893.393873</v>
+        <v>1700263329.038424</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1365485419028142</v>
+        <v>0.09883732720121306</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03904738660002106</v>
+        <v>0.04155078012667981</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>940574917.2306424</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2578037248.838067</v>
+        <v>1836641778.900232</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07340430921459798</v>
+        <v>0.1157137411375083</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03568331639057517</v>
+        <v>0.04369336800340098</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1289018544.76011</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3268520187.998162</v>
+        <v>3358027902.780821</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1502986388736633</v>
+        <v>0.1574512920748803</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05136680282438959</v>
+        <v>0.04151317803086704</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>79</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1634260183.770136</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2197408436.405264</v>
+        <v>2794958108.473646</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1611326084100461</v>
+        <v>0.1584866537705974</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02489045099594226</v>
+        <v>0.02298529146999825</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1098704273.259164</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1020189339.831964</v>
+        <v>941975259.9603919</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1687767474857083</v>
+        <v>0.1281801473945335</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03177655295569942</v>
+        <v>0.03981440230368152</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>510094679.3966776</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2594496748.125129</v>
+        <v>3669606398.992967</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1609279638181725</v>
+        <v>0.1764893138873954</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02870168040704382</v>
+        <v>0.0241821483226614</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>82</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1297248364.41902</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2766178883.012745</v>
+        <v>2358032063.91251</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1040195533308125</v>
+        <v>0.128734023932499</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02610910025352486</v>
+        <v>0.0414355721222569</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>71</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1383089496.729411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1868711497.601919</v>
+        <v>1329304747.358237</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1224984090285769</v>
+        <v>0.09389330307338907</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04282168518005308</v>
+        <v>0.04708768689237122</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>934355794.9844635</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1968700957.864163</v>
+        <v>1741815026.149901</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1769665045967086</v>
+        <v>0.1774540036349353</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05907432661777656</v>
+        <v>0.03841561601675266</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>984350455.3349501</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2410103516.821754</v>
+        <v>2204314249.024896</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09395928070958985</v>
+        <v>0.08127737867179492</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03830926533379699</v>
+        <v>0.0335589449308533</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>54</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1205051735.56131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4122847556.922521</v>
+        <v>4429938801.354266</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0924622880450273</v>
+        <v>0.08746239873905351</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03858418238496945</v>
+        <v>0.04227226649030036</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2061423771.133984</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1833245450.031284</v>
+        <v>2456899564.00241</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1576808445341616</v>
+        <v>0.1043882625597187</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03561006891868842</v>
+        <v>0.02962311081176701</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>916622701.6959029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2580323044.177068</v>
+        <v>2160099061.811731</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09820297090023902</v>
+        <v>0.09195840939148242</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04959017588788749</v>
+        <v>0.03558391449598061</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>50</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1290161552.307731</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2245572241.863087</v>
+        <v>1804678321.387104</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08951390840050527</v>
+        <v>0.132309543957126</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04678582041264664</v>
+        <v>0.02926826377859238</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1122786081.670237</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3931829270.048055</v>
+        <v>5296596792.944613</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1263137809420256</v>
+        <v>0.1521914120078256</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01867692727514178</v>
+        <v>0.01879029318072997</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>68</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1965914685.905333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3230172049.842646</v>
+        <v>2579823859.552555</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07938069388528522</v>
+        <v>0.09907566259168026</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02207297918245098</v>
+        <v>0.02504590567037054</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>56</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1615086025.230861</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2694831610.210841</v>
+        <v>2969659373.739621</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1043619830772166</v>
+        <v>0.112401666658787</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02161915233489688</v>
+        <v>0.03300260671177856</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>65</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1347415768.917122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4615246576.190071</v>
+        <v>4191884350.156435</v>
       </c>
       <c r="F100" t="n">
-        <v>0.127189980421478</v>
+        <v>0.173054019579046</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01990345265072128</v>
+        <v>0.01797184468069178</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2307623407.856948</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3518238950.18367</v>
+        <v>2333984376.991197</v>
       </c>
       <c r="F101" t="n">
-        <v>0.198550888787976</v>
+        <v>0.1614051396889588</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04494460546687057</v>
+        <v>0.05452081898437026</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>85</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1759119632.594503</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_210.xlsx
+++ b/output/fit_clients/fit_round_210.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2069376438.602399</v>
+        <v>2161115510.354778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09611054925128985</v>
+        <v>0.08100337841589321</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04056661081699681</v>
+        <v>0.03770854458092519</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2221786869.617322</v>
+        <v>2491921079.821224</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1766812824519876</v>
+        <v>0.1655620565603143</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03991417012506124</v>
+        <v>0.03864403504384635</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4357755925.514755</v>
+        <v>3398772565.719788</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1134617583489152</v>
+        <v>0.1300798216940381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02508885563936462</v>
+        <v>0.02571650916139852</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3103606618.750109</v>
+        <v>3622955973.449004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07773302740699727</v>
+        <v>0.1041010604421952</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04599645276893802</v>
+        <v>0.0406117435475316</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1855525663.626783</v>
+        <v>1987062276.069928</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09497280530622798</v>
+        <v>0.1435124015877367</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04069374594433521</v>
+        <v>0.04813790486726827</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2914090088.210997</v>
+        <v>3079722038.024795</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08143630399485667</v>
+        <v>0.06439126766407548</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03211128266702629</v>
+        <v>0.03171114646839944</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2941937744.535593</v>
+        <v>2986829174.300976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1443117683844915</v>
+        <v>0.1627962144502566</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02795448461299519</v>
+        <v>0.02410922460352117</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2136179121.600705</v>
+        <v>2022414757.750694</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1713215154746952</v>
+        <v>0.1531041242384312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02337084988355041</v>
+        <v>0.03269465058079117</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5878498142.994023</v>
+        <v>4746929833.553356</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2118865093356299</v>
+        <v>0.1905011654708601</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04109773743035085</v>
+        <v>0.04843289064878929</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4033707557.655866</v>
+        <v>3027906209.631595</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1731123506558348</v>
+        <v>0.1243493238422734</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04692567949498421</v>
+        <v>0.03962881159807139</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2548283107.63311</v>
+        <v>2716430818.285056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1792902075326906</v>
+        <v>0.1376833483980215</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03310211052006071</v>
+        <v>0.03879809938714536</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4505140353.059179</v>
+        <v>3554505329.198042</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08804566027762219</v>
+        <v>0.08531443744673936</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02757835054761199</v>
+        <v>0.02211408092329219</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3378932886.138626</v>
+        <v>2366909767.816266</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1240062528686144</v>
+        <v>0.1249384852732613</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02925703860122306</v>
+        <v>0.03387010666330734</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1557417362.772066</v>
+        <v>1741885357.381231</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08000512196944261</v>
+        <v>0.08676153473055627</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03734830940044271</v>
+        <v>0.03590895380905518</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2607555272.927942</v>
+        <v>2303816108.02628</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08664980538898892</v>
+        <v>0.08749413494104753</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04521196142771267</v>
+        <v>0.04138645855589037</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4776670574.370256</v>
+        <v>4120914415.73826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1575478432121174</v>
+        <v>0.1619092317068846</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04372185814212913</v>
+        <v>0.04313810480467088</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2582317990.997846</v>
+        <v>3423257744.845886</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1752373529631259</v>
+        <v>0.125434504844288</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02195279431518185</v>
+        <v>0.0306037639393678</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1374515350.284688</v>
+        <v>996117549.8741887</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1741551775839348</v>
+        <v>0.1221290837627674</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01727714777790005</v>
+        <v>0.02235536450284207</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2796188357.950776</v>
+        <v>2046855674.094912</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1501012140197739</v>
+        <v>0.1578876035887803</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02816795590589805</v>
+        <v>0.02361567430222623</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2221264934.165789</v>
+        <v>2281571284.440073</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0764319391806096</v>
+        <v>0.07921570231342998</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03178191432073906</v>
+        <v>0.03935681358670572</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3655335279.423432</v>
+        <v>3271158467.153276</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09510614163367161</v>
+        <v>0.1328159770986341</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05427609163540704</v>
+        <v>0.03660942334252304</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1255140351.035256</v>
+        <v>1437698032.209944</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1609334557401902</v>
+        <v>0.1821772234947683</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04508855749303583</v>
+        <v>0.05315628106949107</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2598401693.603271</v>
+        <v>2760771124.799519</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09989639934524068</v>
+        <v>0.09432625730115095</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03194471608494878</v>
+        <v>0.03708154906671332</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1459038315.043362</v>
+        <v>1035498991.725331</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09489872442842906</v>
+        <v>0.1004242341641732</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01925231361609634</v>
+        <v>0.02637632124293428</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1304360923.87323</v>
+        <v>920661124.3645469</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1063742432971449</v>
+        <v>0.0827498838113091</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02953939702285362</v>
+        <v>0.03075905926191252</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4120315201.482824</v>
+        <v>3393542739.378987</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1328405530838773</v>
+        <v>0.1448892779150592</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0194211325467905</v>
+        <v>0.02251012280226129</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2371334956.022292</v>
+        <v>2835621747.770315</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1405319981071569</v>
+        <v>0.1258429857040837</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04034890029052701</v>
+        <v>0.03296623811862094</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5320929846.002897</v>
+        <v>3590997282.529737</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1479936521463853</v>
+        <v>0.1390114676021865</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03914295396546393</v>
+        <v>0.03995593362937809</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1521357214.818783</v>
+        <v>1821870845.782501</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1215436859678862</v>
+        <v>0.1219215243345843</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02557149204423692</v>
+        <v>0.03450921410750457</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1458915202.613557</v>
+        <v>1171882876.78698</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0728062931252367</v>
+        <v>0.08959721284689279</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0381611401490423</v>
+        <v>0.05024572163449368</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1408853299.635756</v>
+        <v>1671272598.062403</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1182974778201615</v>
+        <v>0.07378620198585652</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03566929255984506</v>
+        <v>0.0237307344124853</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1918130744.237764</v>
+        <v>2723763319.695763</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1706101024004945</v>
+        <v>0.1989616079588523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05586727729125952</v>
+        <v>0.04077623581866605</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1146886233.581476</v>
+        <v>1369763929.733778</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07594945268142689</v>
+        <v>0.1006868718742206</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01930102634788473</v>
+        <v>0.0178304354299562</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>929682810.4386346</v>
+        <v>1096340200.968392</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09537417971724424</v>
+        <v>0.1000326435678834</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03159391236280669</v>
+        <v>0.03212234924952736</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3055735210.106902</v>
+        <v>2903993540.016071</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1152749399400926</v>
+        <v>0.1136955250794228</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02067486091152454</v>
+        <v>0.02440180555568115</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2862717079.980483</v>
+        <v>2200594370.159973</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08985309768001117</v>
+        <v>0.07706089692458094</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0274521606674039</v>
+        <v>0.03710181792423061</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1585076755.358609</v>
+        <v>1606743940.954983</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1044877952720696</v>
+        <v>0.0935026565680732</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02997995099198614</v>
+        <v>0.02537491396231254</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2019862310.597423</v>
+        <v>1379147568.360962</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1925678643743002</v>
+        <v>0.1769512464816649</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02953523813347414</v>
+        <v>0.02129345155340561</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1793386739.820868</v>
+        <v>1398026756.902991</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1270762680637937</v>
+        <v>0.1434746107968965</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05333554944001467</v>
+        <v>0.05957064063966096</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1885669663.673893</v>
+        <v>2444615410.018726</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1396922334732495</v>
+        <v>0.120538612922705</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0411310419698798</v>
+        <v>0.0295192501870372</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4026723732.506868</v>
+        <v>3178234734.205384</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09798597801232499</v>
+        <v>0.1231486282877043</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04228057841331814</v>
+        <v>0.03868931131041682</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2243931092.753513</v>
+        <v>2383535352.623689</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1245864324968267</v>
+        <v>0.1292910840665965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01954130810593703</v>
+        <v>0.02386227727132233</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1914616863.796098</v>
+        <v>1756685388.267714</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08865189240882557</v>
+        <v>0.08788166732981111</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02676707420829191</v>
+        <v>0.02878017991452953</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2525578580.629452</v>
+        <v>1733471454.279824</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1651471322018889</v>
+        <v>0.1778870782163945</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03755128340404671</v>
+        <v>0.05170567365823312</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4078407333.150964</v>
+        <v>4710452829.774899</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1477611971747758</v>
+        <v>0.1646284688322543</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05887588402850406</v>
+        <v>0.05525653662273947</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5142322103.957392</v>
+        <v>3779911118.61353</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1660929636650122</v>
+        <v>0.1920307045531498</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05700018685537336</v>
+        <v>0.04098431636824479</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3000310286.571666</v>
+        <v>4419493745.035141</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1034227891712994</v>
+        <v>0.07911319942137629</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0251710432804078</v>
+        <v>0.03650935009823904</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1385698187.824195</v>
+        <v>1707868622.694868</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1595969009508701</v>
+        <v>0.1272155013254584</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02898669950678459</v>
+        <v>0.02958649190206724</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3098332104.120115</v>
+        <v>3392828969.093394</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1747505367497535</v>
+        <v>0.1719930229488517</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03430223971298961</v>
+        <v>0.05235536723541347</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1496441806.022504</v>
+        <v>1262206477.498734</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1579982955652723</v>
+        <v>0.1852233293158216</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05262437379680114</v>
+        <v>0.05100773730359471</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3452066235.889589</v>
+        <v>4420600132.045923</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1146120780736802</v>
+        <v>0.1128748413946804</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05590460963629072</v>
+        <v>0.05545880659696426</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2536985663.337451</v>
+        <v>3441501659.751102</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1812365950699201</v>
+        <v>0.170025090411155</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02545136772957491</v>
+        <v>0.02526353392100867</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3507931525.492505</v>
+        <v>3712085110.479636</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1526161590002767</v>
+        <v>0.1614298195679801</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05301373765708463</v>
+        <v>0.04170214349775236</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3806010581.298447</v>
+        <v>4533030068.311061</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2178235463069697</v>
+        <v>0.1801772386450632</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02844467047450303</v>
+        <v>0.0280250052915643</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1653308091.405029</v>
+        <v>1433821715.322579</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1019744666856472</v>
+        <v>0.1598750388182084</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05200415414778948</v>
+        <v>0.0371773396943836</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3035339179.030978</v>
+        <v>4577198203.547255</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1475839058850428</v>
+        <v>0.1244230267095713</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02761494589964247</v>
+        <v>0.02421154115438199</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1761000884.244106</v>
+        <v>1278259313.431046</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1412501668563595</v>
+        <v>0.1560959015137687</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03491667756978091</v>
+        <v>0.02956338865121544</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4774672807.733892</v>
+        <v>5226355454.135543</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1246301671655219</v>
+        <v>0.08799726478511534</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03491586924295802</v>
+        <v>0.04508010821828727</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2756395512.627945</v>
+        <v>2690088841.626432</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1456698976377088</v>
+        <v>0.1250539891760385</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02128926787000946</v>
+        <v>0.02836924715522293</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3058094853.896821</v>
+        <v>2482563345.721614</v>
       </c>
       <c r="F61" t="n">
-        <v>0.172985899670607</v>
+        <v>0.1351190085013403</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02471047236648597</v>
+        <v>0.0212751936987126</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1984513339.935504</v>
+        <v>1536316939.522571</v>
       </c>
       <c r="F62" t="n">
-        <v>0.157326599122195</v>
+        <v>0.1445404553675095</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03638540981427007</v>
+        <v>0.04753470431438064</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4265361233.363799</v>
+        <v>3636741648.943865</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09192021030470066</v>
+        <v>0.08671973154476013</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04379011406481023</v>
+        <v>0.04608304745785923</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4865359375.755515</v>
+        <v>5328824371.010783</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1264561925859074</v>
+        <v>0.1408576399513841</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02684529099589158</v>
+        <v>0.02651054423050614</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5788893614.010594</v>
+        <v>5549535149.484438</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1722502732898942</v>
+        <v>0.118993600980882</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03214294152519583</v>
+        <v>0.0250989835662444</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4523602710.300005</v>
+        <v>4259125231.542225</v>
       </c>
       <c r="F66" t="n">
-        <v>0.134056441876106</v>
+        <v>0.1036599485168037</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04745938831834155</v>
+        <v>0.03745830585568666</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2369011224.227604</v>
+        <v>2563779478.82924</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07861440180801127</v>
+        <v>0.08716436120616845</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0383319905535271</v>
+        <v>0.04711924061922144</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5593076320.775079</v>
+        <v>4212748505.566283</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1081801909194427</v>
+        <v>0.1409679442762732</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05126247072111095</v>
+        <v>0.04349158701974651</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2479378682.427224</v>
+        <v>1859154256.258505</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1489932051730503</v>
+        <v>0.1410267205135731</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05512311774693017</v>
+        <v>0.03660576980820054</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2497887127.505173</v>
+        <v>2462426333.453029</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07162453646958331</v>
+        <v>0.09023008710561241</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04084842988114146</v>
+        <v>0.035799139131065</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4060455700.481593</v>
+        <v>5240504157.124743</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1672603931510342</v>
+        <v>0.1454370979993419</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0319967112203306</v>
+        <v>0.02071857736425853</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1450167117.075233</v>
+        <v>1778634260.529052</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08784736743122615</v>
+        <v>0.08265733016003367</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05171014437984754</v>
+        <v>0.04102278959644991</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3337168127.70906</v>
+        <v>2691039435.213325</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0714881108273729</v>
+        <v>0.09509655834634119</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04208327491166775</v>
+        <v>0.05214222876093226</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3373175285.312956</v>
+        <v>3953504000.805368</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1526805679234284</v>
+        <v>0.1310501367082325</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02851656379988931</v>
+        <v>0.02508593596141959</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2259326854.642297</v>
+        <v>1613278192.01351</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1606419468105106</v>
+        <v>0.116162866957922</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02362425160155313</v>
+        <v>0.03393570273679573</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4625186400.252564</v>
+        <v>5377318436.065247</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1196446622172492</v>
+        <v>0.08212598432846999</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03038258269705528</v>
+        <v>0.02847440617799295</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2312966292.753386</v>
+        <v>2073221320.531848</v>
       </c>
       <c r="F77" t="n">
-        <v>0.150491100416375</v>
+        <v>0.1353375838730579</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02211285654405242</v>
+        <v>0.02153571900187194</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4374832728.928489</v>
+        <v>4067696484.040173</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1331350716061275</v>
+        <v>0.12074035758792</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03639006960898123</v>
+        <v>0.04687546625972668</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1352230822.969582</v>
+        <v>1353728248.959116</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1775745556937469</v>
+        <v>0.1274956983744569</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0271454453472317</v>
+        <v>0.02549845967709775</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5414591055.687654</v>
+        <v>3451404560.328174</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08203312945109106</v>
+        <v>0.06786116003127374</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02458204042887516</v>
+        <v>0.03104487218011715</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5201521521.008789</v>
+        <v>3995929379.471633</v>
       </c>
       <c r="F81" t="n">
-        <v>0.117039622470365</v>
+        <v>0.1048146933565604</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02240533289786105</v>
+        <v>0.03073384718373366</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4211486245.305719</v>
+        <v>3773326138.217685</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1874268097802691</v>
+        <v>0.1734795433446173</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01781573002243311</v>
+        <v>0.01780949515587934</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1700263329.038424</v>
+        <v>1743621255.265552</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09883732720121306</v>
+        <v>0.096362255918059</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04155078012667981</v>
+        <v>0.03213017143390343</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1836641778.900232</v>
+        <v>2597638817.341585</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1157137411375083</v>
+        <v>0.07927152495858911</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04369336800340098</v>
+        <v>0.04854759383149998</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3358027902.780821</v>
+        <v>2630579095.860202</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1574512920748803</v>
+        <v>0.1656123585860124</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04151317803086704</v>
+        <v>0.0538173047695697</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2794958108.473646</v>
+        <v>1736262397.266441</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1584866537705974</v>
+        <v>0.1157267632399002</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02298529146999825</v>
+        <v>0.02558895168314718</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>941975259.9603919</v>
+        <v>1138589858.551766</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1281801473945335</v>
+        <v>0.1585270975793521</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03981440230368152</v>
+        <v>0.03919285394045193</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3669606398.992967</v>
+        <v>2383578227.134808</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1764893138873954</v>
+        <v>0.1419902374539312</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0241821483226614</v>
+        <v>0.03870313955008067</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2358032063.91251</v>
+        <v>2500235253.131505</v>
       </c>
       <c r="F89" t="n">
-        <v>0.128734023932499</v>
+        <v>0.1267470187367706</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0414355721222569</v>
+        <v>0.04080717033332234</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1329304747.358237</v>
+        <v>2069440450.633009</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09389330307338907</v>
+        <v>0.1197275421758342</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04708768689237122</v>
+        <v>0.03474067181920165</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1741815026.149901</v>
+        <v>1595565031.956738</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1774540036349353</v>
+        <v>0.1699845927485365</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03841561601675266</v>
+        <v>0.03780806488574423</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2204314249.024896</v>
+        <v>2198100333.992848</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08127737867179492</v>
+        <v>0.07557114783840251</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0335589449308533</v>
+        <v>0.04635962818553659</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4429938801.354266</v>
+        <v>3600993781.277002</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08746239873905351</v>
+        <v>0.08635234391615998</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04227226649030036</v>
+        <v>0.05290737781390101</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2456899564.00241</v>
+        <v>1766003971.02647</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1043882625597187</v>
+        <v>0.109101825475284</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02962311081176701</v>
+        <v>0.02811200259277705</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2160099061.811731</v>
+        <v>3260620583.435076</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09195840939148242</v>
+        <v>0.09489863707168747</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03558391449598061</v>
+        <v>0.03334608015947763</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1804678321.387104</v>
+        <v>1919533085.033488</v>
       </c>
       <c r="F96" t="n">
-        <v>0.132309543957126</v>
+        <v>0.1288613329853962</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02926826377859238</v>
+        <v>0.04726419696794291</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5296596792.944613</v>
+        <v>3605851576.460831</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1521914120078256</v>
+        <v>0.1608480418015165</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01879029318072997</v>
+        <v>0.023658508650677</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2579823859.552555</v>
+        <v>2916181572.445179</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09907566259168026</v>
+        <v>0.1300015888187019</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02504590567037054</v>
+        <v>0.02637446113072755</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2969659373.739621</v>
+        <v>2963595936.945595</v>
       </c>
       <c r="F99" t="n">
-        <v>0.112401666658787</v>
+        <v>0.1401142542110331</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03300260671177856</v>
+        <v>0.02160308884042943</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4191884350.156435</v>
+        <v>3362309788.602829</v>
       </c>
       <c r="F100" t="n">
-        <v>0.173054019579046</v>
+        <v>0.1467483894767646</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01797184468069178</v>
+        <v>0.02625229972244074</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2333984376.991197</v>
+        <v>2961698484.113957</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1614051396889588</v>
+        <v>0.1356193262883733</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05452081898437026</v>
+        <v>0.05661403515301786</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_210.xlsx
+++ b/output/fit_clients/fit_round_210.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2161115510.354778</v>
+        <v>1910338752.858743</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08100337841589321</v>
+        <v>0.08770977471144928</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03770854458092519</v>
+        <v>0.0404341292624542</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2491921079.821224</v>
+        <v>2619944280.614936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1655620565603143</v>
+        <v>0.1253707067321218</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03864403504384635</v>
+        <v>0.04131955475964744</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3398772565.719788</v>
+        <v>3199926845.95765</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1300798216940381</v>
+        <v>0.1264356480988873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02571650916139852</v>
+        <v>0.03548263873873575</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>115</v>
+      </c>
+      <c r="J4" t="n">
+        <v>209</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74.86805336690797</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3622955973.449004</v>
+        <v>3566345906.952311</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1041010604421952</v>
+        <v>0.07145809042495188</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0406117435475316</v>
+        <v>0.0313798109320449</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>210</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1987062276.069928</v>
+        <v>2817318436.892796</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1435124015877367</v>
+        <v>0.1306892343871126</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04813790486726827</v>
+        <v>0.03501930374949513</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3079722038.024795</v>
+        <v>2950132583.217262</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06439126766407548</v>
+        <v>0.1000030343525562</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03171114646839944</v>
+        <v>0.02994863489940783</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2986829174.300976</v>
+        <v>2928942850.47901</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1627962144502566</v>
+        <v>0.1813804804038212</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02410922460352117</v>
+        <v>0.02838593383412346</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>59</v>
+      </c>
+      <c r="J8" t="n">
+        <v>208</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2022414757.750694</v>
+        <v>1529930714.642951</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1531041242384312</v>
+        <v>0.1882242700552851</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03269465058079117</v>
+        <v>0.02868172850662043</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4746929833.553356</v>
+        <v>5012981434.059891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1905011654708601</v>
+        <v>0.1444204087294277</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04843289064878929</v>
+        <v>0.03895366523850111</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>191</v>
+      </c>
+      <c r="J10" t="n">
+        <v>210</v>
+      </c>
+      <c r="K10" t="n">
+        <v>125.8491817853089</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3027906209.631595</v>
+        <v>2797604805.007144</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1243493238422734</v>
+        <v>0.1167667310074751</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03962881159807139</v>
+        <v>0.03209524526083155</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>209</v>
+      </c>
+      <c r="K11" t="n">
+        <v>62.88502260513827</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2716430818.285056</v>
+        <v>2494060801.2866</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1376833483980215</v>
+        <v>0.1742360709276967</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03879809938714536</v>
+        <v>0.04906854115169999</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3554505329.198042</v>
+        <v>3836847415.646215</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08531443744673936</v>
+        <v>0.08272269081995268</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02211408092329219</v>
+        <v>0.02960023291391392</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>105</v>
+      </c>
+      <c r="J13" t="n">
+        <v>209</v>
+      </c>
+      <c r="K13" t="n">
+        <v>110.3905526151062</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2366909767.816266</v>
+        <v>3704350775.573156</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1249384852732613</v>
+        <v>0.1291293764083162</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03387010666330734</v>
+        <v>0.03286676576911942</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="n">
+        <v>210</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1741885357.381231</v>
+        <v>1822615521.712215</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08676153473055627</v>
+        <v>0.08040202449230742</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03590895380905518</v>
+        <v>0.04296685542262702</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2303816108.02628</v>
+        <v>2482629643.223096</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08749413494104753</v>
+        <v>0.07295294776985876</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04138645855589037</v>
+        <v>0.04349001257647176</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4120914415.73826</v>
+        <v>3204567927.316014</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1619092317068846</v>
+        <v>0.1609384245720678</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04313810480467088</v>
+        <v>0.04049081569766055</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>101</v>
+      </c>
+      <c r="J17" t="n">
+        <v>209</v>
+      </c>
+      <c r="K17" t="n">
+        <v>71.35630532080242</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3423257744.845886</v>
+        <v>3538226701.139717</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125434504844288</v>
+        <v>0.1633576945573239</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0306037639393678</v>
+        <v>0.02599799525337905</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>54</v>
+      </c>
+      <c r="J18" t="n">
+        <v>209</v>
+      </c>
+      <c r="K18" t="n">
+        <v>95.23880286591644</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>996117549.8741887</v>
+        <v>1011468227.232426</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1221290837627674</v>
+        <v>0.133951995048229</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02235536450284207</v>
+        <v>0.02430596805706968</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2046855674.094912</v>
+        <v>2067976422.454403</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1578876035887803</v>
+        <v>0.1560660230817077</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02361567430222623</v>
+        <v>0.02650731496195211</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2281571284.440073</v>
+        <v>1792007619.337413</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07921570231342998</v>
+        <v>0.08221973050147968</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03935681358670572</v>
+        <v>0.02952420445448301</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3271158467.153276</v>
+        <v>3059469701.550168</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1328159770986341</v>
+        <v>0.1138823476259961</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03660942334252304</v>
+        <v>0.0419421272493901</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>54</v>
+      </c>
+      <c r="J22" t="n">
+        <v>208</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1437698032.209944</v>
+        <v>1000796388.822927</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1821772234947683</v>
+        <v>0.1822705935465366</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05315628106949107</v>
+        <v>0.04479122742216138</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1283,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2760771124.799519</v>
+        <v>3045086748.394916</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09432625730115095</v>
+        <v>0.1278674488563889</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03708154906671332</v>
+        <v>0.03636030222774644</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>65</v>
+      </c>
+      <c r="J24" t="n">
+        <v>209</v>
+      </c>
+      <c r="K24" t="n">
+        <v>63.96826113004433</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1035498991.725331</v>
+        <v>1269310151.62398</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1004242341641732</v>
+        <v>0.1007464449150007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02637632124293428</v>
+        <v>0.02766573974917055</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>920661124.3645469</v>
+        <v>999423996.820381</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0827498838113091</v>
+        <v>0.1192888241062702</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03075905926191252</v>
+        <v>0.03503606682205988</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3393542739.378987</v>
+        <v>4474489282.082798</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1448892779150592</v>
+        <v>0.1224251012983222</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02251012280226129</v>
+        <v>0.02151858097476625</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>83</v>
+      </c>
+      <c r="J27" t="n">
+        <v>209</v>
+      </c>
+      <c r="K27" t="n">
+        <v>100.2232262227406</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2835621747.770315</v>
+        <v>3307494112.095174</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1258429857040837</v>
+        <v>0.1304902707512334</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03296623811862094</v>
+        <v>0.03096213060109019</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3590997282.529737</v>
+        <v>5046494505.154047</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1390114676021865</v>
+        <v>0.1512656955758778</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03995593362937809</v>
+        <v>0.04646244558422115</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>199</v>
+      </c>
+      <c r="J29" t="n">
+        <v>210</v>
+      </c>
+      <c r="K29" t="n">
+        <v>129.5619093349299</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1499,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1821870845.782501</v>
+        <v>1586916822.986237</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1219215243345843</v>
+        <v>0.1385530410036732</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03450921410750457</v>
+        <v>0.02445084058659877</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1171882876.78698</v>
+        <v>1370988920.926158</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08959721284689279</v>
+        <v>0.08159619843458826</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05024572163449368</v>
+        <v>0.03858731263272892</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1671272598.062403</v>
+        <v>1498319691.936722</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07378620198585652</v>
+        <v>0.1071619203286552</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0237307344124853</v>
+        <v>0.03082069080157691</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2723763319.695763</v>
+        <v>2077963179.76679</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1989616079588523</v>
+        <v>0.1321197589494029</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04077623581866605</v>
+        <v>0.04768340198856823</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1639,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1369763929.733778</v>
+        <v>1213401673.849182</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1006868718742206</v>
+        <v>0.09394989135253229</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0178304354299562</v>
+        <v>0.02249183748305756</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1096340200.968392</v>
+        <v>1355079563.023342</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1000326435678834</v>
+        <v>0.08403076240894843</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03212234924952736</v>
+        <v>0.03774168432468473</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2903993540.016071</v>
+        <v>2193282447.976403</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1136955250794228</v>
+        <v>0.1389882256917749</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02440180555568115</v>
+        <v>0.02580124667901119</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1744,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2200594370.159973</v>
+        <v>2886700017.14864</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07706089692458094</v>
+        <v>0.09344246542159697</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03710181792423061</v>
+        <v>0.02980382175586228</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1779,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1606743940.954983</v>
+        <v>1879640247.39733</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0935026565680732</v>
+        <v>0.0838418316009089</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02537491396231254</v>
+        <v>0.03609463080614858</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1379147568.360962</v>
+        <v>1956064033.305141</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1769512464816649</v>
+        <v>0.1407311606170921</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02129345155340561</v>
+        <v>0.02177067363794493</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1398026756.902991</v>
+        <v>1459879120.877264</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1434746107968965</v>
+        <v>0.1398074990956552</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05957064063966096</v>
+        <v>0.03652982827036653</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2444615410.018726</v>
+        <v>2142490260.960145</v>
       </c>
       <c r="F41" t="n">
-        <v>0.120538612922705</v>
+        <v>0.1113824348492868</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0295192501870372</v>
+        <v>0.0317382384653777</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1913,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3178234734.205384</v>
+        <v>3890312001.955016</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1231486282877043</v>
+        <v>0.08685957992016453</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03868931131041682</v>
+        <v>0.04114501497034397</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>83</v>
+      </c>
+      <c r="J42" t="n">
+        <v>209</v>
+      </c>
+      <c r="K42" t="n">
+        <v>117.4550366206471</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1956,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2383535352.623689</v>
+        <v>2326272616.284763</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1292910840665965</v>
+        <v>0.1249606270098948</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02386227727132233</v>
+        <v>0.02125464375627031</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1756685388.267714</v>
+        <v>1955887429.704193</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08788166732981111</v>
+        <v>0.0685455906574057</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02878017991452953</v>
+        <v>0.02569564999141493</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1733471454.279824</v>
+        <v>1893722494.088366</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1778870782163945</v>
+        <v>0.1654887872045571</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05170567365823312</v>
+        <v>0.03771424654386094</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2055,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4710452829.774899</v>
+        <v>4403552741.433996</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1646284688322543</v>
+        <v>0.1424548876672511</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05525653662273947</v>
+        <v>0.04653603046598052</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>120</v>
+      </c>
+      <c r="J46" t="n">
+        <v>209</v>
+      </c>
+      <c r="K46" t="n">
+        <v>117.2124796431502</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2098,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3779911118.61353</v>
+        <v>3449723260.711997</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1920307045531498</v>
+        <v>0.1283614552995194</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04098431636824479</v>
+        <v>0.05216722090919004</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>94</v>
+      </c>
+      <c r="J47" t="n">
+        <v>208</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2127,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4419493745.035141</v>
+        <v>3791340057.833375</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07911319942137629</v>
+        <v>0.1072301185820664</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03650935009823904</v>
+        <v>0.03412560992291848</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>103</v>
+      </c>
+      <c r="J48" t="n">
+        <v>210</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1707868622.694868</v>
+        <v>1362799929.656002</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1272155013254584</v>
+        <v>0.12918741458265</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02958649190206724</v>
+        <v>0.03172875473099411</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3392828969.093394</v>
+        <v>2645837890.436438</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1719930229488517</v>
+        <v>0.1669502953156242</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05235536723541347</v>
+        <v>0.03788651143693101</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>67</v>
+      </c>
+      <c r="J50" t="n">
+        <v>207</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1262206477.498734</v>
+        <v>1173316375.565937</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1852233293158216</v>
+        <v>0.1363786355218025</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05100773730359471</v>
+        <v>0.03667581650628475</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4420600132.045923</v>
+        <v>3579367605.442765</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1128748413946804</v>
+        <v>0.09311603923106389</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05545880659696426</v>
+        <v>0.04076468598190097</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>142</v>
+      </c>
+      <c r="J52" t="n">
+        <v>210</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3441501659.751102</v>
+        <v>2542243522.471711</v>
       </c>
       <c r="F53" t="n">
-        <v>0.170025090411155</v>
+        <v>0.1908999125889314</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02526353392100867</v>
+        <v>0.03057685899173185</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3712085110.479636</v>
+        <v>4934640740.017676</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1614298195679801</v>
+        <v>0.160996048165865</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04170214349775236</v>
+        <v>0.03795122265743583</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>109</v>
+      </c>
+      <c r="J54" t="n">
+        <v>210</v>
+      </c>
+      <c r="K54" t="n">
+        <v>118.9993514358083</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2380,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4533030068.311061</v>
+        <v>3824672132.767061</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1801772386450632</v>
+        <v>0.1904801848401481</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0280250052915643</v>
+        <v>0.03263803002547981</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>93</v>
+      </c>
+      <c r="J55" t="n">
+        <v>210</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1433821715.322579</v>
+        <v>1832821095.605321</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1598750388182084</v>
+        <v>0.1092160275155619</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0371773396943836</v>
+        <v>0.04990741485428629</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4577198203.547255</v>
+        <v>4533119519.763374</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1244230267095713</v>
+        <v>0.1767610397843028</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02421154115438199</v>
+        <v>0.02747587402090768</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>82</v>
+      </c>
+      <c r="J57" t="n">
+        <v>210</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1278259313.431046</v>
+        <v>1295606717.393381</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1560959015137687</v>
+        <v>0.1392485123693504</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02956338865121544</v>
+        <v>0.03223065614343105</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5226355454.135543</v>
+        <v>5310203946.050137</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08799726478511534</v>
+        <v>0.09440738391946639</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04508010821828727</v>
+        <v>0.03879682344107611</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>101</v>
+      </c>
+      <c r="J59" t="n">
+        <v>210</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2690088841.626432</v>
+        <v>3639337434.402311</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1250539891760385</v>
+        <v>0.1829233510599829</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02836924715522293</v>
+        <v>0.03167415369768583</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>210</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2482563345.721614</v>
+        <v>2930329349.010482</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1351190085013403</v>
+        <v>0.1091328736487543</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0212751936987126</v>
+        <v>0.02083968262614997</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1536316939.522571</v>
+        <v>1275992597.685623</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1445404553675095</v>
+        <v>0.1280324772155607</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04753470431438064</v>
+        <v>0.0406820349415748</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3636741648.943865</v>
+        <v>5618375570.13838</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08671973154476013</v>
+        <v>0.1003492610870591</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04608304745785923</v>
+        <v>0.04410986832586661</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>102</v>
+      </c>
+      <c r="J63" t="n">
+        <v>210</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5328824371.010783</v>
+        <v>5080902861.728116</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1408576399513841</v>
+        <v>0.1527685928673065</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02651054423050614</v>
+        <v>0.03244170582267706</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>103</v>
+      </c>
+      <c r="J64" t="n">
+        <v>210</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5549535149.484438</v>
+        <v>5416229121.966438</v>
       </c>
       <c r="F65" t="n">
-        <v>0.118993600980882</v>
+        <v>0.1649632987975154</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0250989835662444</v>
+        <v>0.02611816975337198</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>168</v>
+      </c>
+      <c r="J65" t="n">
+        <v>210</v>
+      </c>
+      <c r="K65" t="n">
+        <v>119.0610396507894</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4259125231.542225</v>
+        <v>4411507997.883213</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1036599485168037</v>
+        <v>0.1438380112768538</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03745830585568666</v>
+        <v>0.03336649467231111</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>103</v>
+      </c>
+      <c r="J66" t="n">
+        <v>210</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2563779478.82924</v>
+        <v>2920649734.89707</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08716436120616845</v>
+        <v>0.08196673511832321</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04711924061922144</v>
+        <v>0.04135250509929783</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4212748505.566283</v>
+        <v>3946140663.390189</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1409679442762732</v>
+        <v>0.147594971042949</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04349158701974651</v>
+        <v>0.04270891085331142</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>106</v>
+      </c>
+      <c r="J68" t="n">
+        <v>209</v>
+      </c>
+      <c r="K68" t="n">
+        <v>113.4765246768476</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1859154256.258505</v>
+        <v>1779697588.632053</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1410267205135731</v>
+        <v>0.124266019265049</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03660576980820054</v>
+        <v>0.04429238223741403</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2462426333.453029</v>
+        <v>3354630654.423625</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09023008710561241</v>
+        <v>0.08187061620262219</v>
       </c>
       <c r="G70" t="n">
-        <v>0.035799139131065</v>
+        <v>0.03111743600801948</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5240504157.124743</v>
+        <v>5461647806.783055</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1454370979993419</v>
+        <v>0.1641451174443446</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02071857736425853</v>
+        <v>0.02801475593713102</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>161</v>
+      </c>
+      <c r="J71" t="n">
+        <v>209</v>
+      </c>
+      <c r="K71" t="n">
+        <v>118.6905120795392</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1778634260.529052</v>
+        <v>1581197242.73625</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08265733016003367</v>
+        <v>0.08874373678786268</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04102278959644991</v>
+        <v>0.0356891047273805</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2691039435.213325</v>
+        <v>3218338148.284142</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09509655834634119</v>
+        <v>0.07907173012563148</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05214222876093226</v>
+        <v>0.04399549144897209</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3953504000.805368</v>
+        <v>2682022490.65921</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1310501367082325</v>
+        <v>0.1459196787502689</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02508593596141959</v>
+        <v>0.03278442971979981</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>62</v>
+      </c>
+      <c r="J74" t="n">
+        <v>208</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1613278192.01351</v>
+        <v>2402724950.09264</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116162866957922</v>
+        <v>0.1266092121339196</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03393570273679573</v>
+        <v>0.03400588537903632</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5377318436.065247</v>
+        <v>4530335424.723323</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08212598432846999</v>
+        <v>0.08767764175702923</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02847440617799295</v>
+        <v>0.03263831231121472</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>96</v>
+      </c>
+      <c r="J76" t="n">
+        <v>210</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2073221320.531848</v>
+        <v>2269607010.481702</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1353375838730579</v>
+        <v>0.1674140830852474</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02153571900187194</v>
+        <v>0.03042533594324519</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4067696484.040173</v>
+        <v>4139104429.191957</v>
       </c>
       <c r="F78" t="n">
-        <v>0.12074035758792</v>
+        <v>0.133856623825</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04687546625972668</v>
+        <v>0.04719192058417875</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>105</v>
+      </c>
+      <c r="J78" t="n">
+        <v>210</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1353728248.959116</v>
+        <v>1444902147.829242</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1274956983744569</v>
+        <v>0.1622990954933211</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02549845967709775</v>
+        <v>0.02796898653364282</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3451404560.328174</v>
+        <v>4907288300.529308</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06786116003127374</v>
+        <v>0.09165232742690387</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03104487218011715</v>
+        <v>0.02426295205551735</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>102</v>
+      </c>
+      <c r="J80" t="n">
+        <v>209</v>
+      </c>
+      <c r="K80" t="n">
+        <v>85.93246729300512</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3995929379.471633</v>
+        <v>3789270370.952613</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1048146933565604</v>
+        <v>0.1266233865416795</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03073384718373366</v>
+        <v>0.02492242625118563</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>96</v>
+      </c>
+      <c r="J81" t="n">
+        <v>210</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3773326138.217685</v>
+        <v>5383027467.976274</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1734795433446173</v>
+        <v>0.1309360221827731</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01780949515587934</v>
+        <v>0.02494997312320351</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>156</v>
+      </c>
+      <c r="J82" t="n">
+        <v>210</v>
+      </c>
+      <c r="K82" t="n">
+        <v>122.9279176251271</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1743621255.265552</v>
+        <v>1734908979.471465</v>
       </c>
       <c r="F83" t="n">
-        <v>0.096362255918059</v>
+        <v>0.1162226720332001</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03213017143390343</v>
+        <v>0.04022765047702081</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2597638817.341585</v>
+        <v>1898329540.629427</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07927152495858911</v>
+        <v>0.08585271725891065</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04854759383149998</v>
+        <v>0.05091210328265693</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2630579095.860202</v>
+        <v>2651926750.044131</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1656123585860124</v>
+        <v>0.1284740026632498</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0538173047695697</v>
+        <v>0.0352121644963994</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1736262397.266441</v>
+        <v>1892639341.620939</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1157267632399002</v>
+        <v>0.1070641042690077</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02558895168314718</v>
+        <v>0.01675424277977893</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1138589858.551766</v>
+        <v>1035436694.240446</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1585270975793521</v>
+        <v>0.1816747095413067</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03919285394045193</v>
+        <v>0.03591883491247696</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2383578227.134808</v>
+        <v>2317760340.96302</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1419902374539312</v>
+        <v>0.1389020143125593</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03870313955008067</v>
+        <v>0.02493336107690259</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>30</v>
+      </c>
+      <c r="J88" t="n">
+        <v>209</v>
+      </c>
+      <c r="K88" t="n">
+        <v>43.00560583741578</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2500235253.131505</v>
+        <v>2546579210.680733</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1267470187367706</v>
+        <v>0.1511735385647544</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04080717033332234</v>
+        <v>0.03340768964841786</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2069440450.633009</v>
+        <v>1583674123.422441</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1197275421758342</v>
+        <v>0.110125069582837</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03474067181920165</v>
+        <v>0.03563391561846867</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1595565031.956738</v>
+        <v>2092455647.257117</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1699845927485365</v>
+        <v>0.1479372214241562</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03780806488574423</v>
+        <v>0.06034844738194685</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2198100333.992848</v>
+        <v>2113982282.826633</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07557114783840251</v>
+        <v>0.110153911888675</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04635962818553659</v>
+        <v>0.03997577466766765</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3600993781.277002</v>
+        <v>3530521893.296928</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08635234391615998</v>
+        <v>0.111187489933615</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05290737781390101</v>
+        <v>0.0541482566169122</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>94</v>
+      </c>
+      <c r="J93" t="n">
+        <v>207</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1766003971.02647</v>
+        <v>1687616694.722512</v>
       </c>
       <c r="F94" t="n">
-        <v>0.109101825475284</v>
+        <v>0.132372507744265</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02811200259277705</v>
+        <v>0.04217376093993917</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3260620583.435076</v>
+        <v>2301856390.784411</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09489863707168747</v>
+        <v>0.1002743814337078</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03334608015947763</v>
+        <v>0.03586499411974235</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1919533085.033488</v>
+        <v>2111493359.972102</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1288613329853962</v>
+        <v>0.1318348408624513</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04726419696794291</v>
+        <v>0.0451930299794945</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3605851576.460831</v>
+        <v>4191721047.621397</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1608480418015165</v>
+        <v>0.1504305444010132</v>
       </c>
       <c r="G97" t="n">
-        <v>0.023658508650677</v>
+        <v>0.02857181799679515</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>101</v>
+      </c>
+      <c r="J97" t="n">
+        <v>209</v>
+      </c>
+      <c r="K97" t="n">
+        <v>115.3766992803938</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2916181572.445179</v>
+        <v>3183458026.605716</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1300015888187019</v>
+        <v>0.1129259199827929</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02637446113072755</v>
+        <v>0.02012980586656368</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="n">
+        <v>67.469499111681</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2963595936.945595</v>
+        <v>2778775723.07559</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1401142542110331</v>
+        <v>0.1232955373115453</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02160308884042943</v>
+        <v>0.02830335861743773</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3362309788.602829</v>
+        <v>4071570109.823463</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1467483894767646</v>
+        <v>0.1234204973549311</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02625229972244074</v>
+        <v>0.01751110520965111</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>86</v>
+      </c>
+      <c r="J100" t="n">
+        <v>210</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2961698484.113957</v>
+        <v>2553533594.007991</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1356193262883733</v>
+        <v>0.1417441060827418</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05661403515301786</v>
+        <v>0.05163619115351625</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
